--- a/data/input/absenteeism_data_26.xlsx
+++ b/data/input/absenteeism_data_26.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64422</v>
+        <v>41390</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Martins</t>
+          <t>Luana da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>11616.05</v>
+        <v>5563.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79470</v>
+        <v>36311</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danilo da Mata</t>
+          <t>Catarina Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>3143.32</v>
+        <v>4477.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Miguel Silva</t>
+          <t>Isabelly Moreira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>12145.26</v>
+        <v>6154.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18145</v>
+        <v>39902</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Rocha</t>
+          <t>Davi Lucca Correia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>9261.190000000001</v>
+        <v>7379.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38840</v>
+        <v>45101</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Davi Luiz Barbosa</t>
+          <t>Luiz Felipe da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>10240.58</v>
+        <v>10797.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39537</v>
+        <v>46812</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Cardoso</t>
+          <t>Gabrielly Oliveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,51 +639,51 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>8839.700000000001</v>
+        <v>12057.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13257</v>
+        <v>20786</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clara Viana</t>
+          <t>Nicolas Lopes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>8275.33</v>
+        <v>8819.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53590</v>
+        <v>67104</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Helena Farias</t>
+          <t>Benjamin Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,68 +700,68 @@
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>7705.23</v>
+        <v>3830.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28730</v>
+        <v>6365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antônio Barbosa</t>
+          <t>Diogo da Costa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>9544.780000000001</v>
+        <v>10476.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94771</v>
+        <v>15453</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thomas Peixoto</t>
+          <t>Srta. Lara Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>8488.58</v>
+        <v>9897.83</v>
       </c>
     </row>
   </sheetData>
